--- a/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
@@ -19,81 +19,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동그라미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreloadCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanvasImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolobject/gameobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolobject/effect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolobject/effect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Particle1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Particle2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동그라미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreloadCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolObject/GameObj/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolObject/Effect1/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolObject/Effect2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolObject/GameObj/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanvasImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +478,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,19 +490,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,16 +510,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,16 +527,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -551,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -568,13 +564,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,13 +581,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
